--- a/assets/imports/transaction_import_form_excel.xlsx
+++ b/assets/imports/transaction_import_form_excel.xlsx
@@ -4,13 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2080" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="280" yWindow="1840" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="transactions" sheetId="1" r:id="rId1"/>
-    <sheet name="item_lines" sheetId="3" r:id="rId2"/>
-    <sheet name="account_lines" sheetId="4" r:id="rId3"/>
-    <sheet name="journal_lines" sheetId="5" r:id="rId4"/>
+    <sheet name="purchases" sheetId="1" r:id="rId1"/>
+    <sheet name="sales" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>number</t>
   </si>
@@ -33,30 +31,15 @@
     <t>memo</t>
   </si>
   <si>
-    <t>dr</t>
-  </si>
-  <si>
-    <t>cr</t>
-  </si>
-  <si>
     <t>issued_date</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>sub_total</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>locale</t>
-  </si>
-  <si>
     <t>due_date</t>
   </si>
   <si>
@@ -69,15 +52,9 @@
     <t>Invoice</t>
   </si>
   <si>
-    <t>km-KH</t>
-  </si>
-  <si>
     <t>2017-12-01</t>
   </si>
   <si>
-    <t>txn_no</t>
-  </si>
-  <si>
     <t>measurement</t>
   </si>
   <si>
@@ -90,12 +67,6 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>unit_value</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -115,18 +86,82 @@
   </si>
   <si>
     <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>bill_to</t>
+  </si>
+  <si>
+    <t>ship_to</t>
+  </si>
+  <si>
+    <t>reference_no</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>INV001</t>
+  </si>
+  <si>
+    <t>Service Item</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>Khmer Cake A</t>
+  </si>
+  <si>
+    <t>Khmer Cake B</t>
+  </si>
+  <si>
+    <t>INV002</t>
+  </si>
+  <si>
+    <t>Credit_Purchase</t>
+  </si>
+  <si>
+    <t>Cash_Purchase</t>
+  </si>
+  <si>
+    <t>BI001</t>
+  </si>
+  <si>
+    <t>BI002</t>
+  </si>
+  <si>
+    <t>Cash and Cash Equivalent</t>
+  </si>
+  <si>
+    <t>Cash_Sale</t>
+  </si>
+  <si>
+    <t>VAT (10%)</t>
+  </si>
+  <si>
+    <t>General Customer</t>
+  </si>
+  <si>
+    <t>General Supplier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,13 +180,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,7 +212,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -197,15 +246,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -222,6 +316,28 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -238,6 +354,28 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,136 +651,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1000</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="C10" s="1"/>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>2500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -657,288 +875,216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>1000</v>
+      </c>
+      <c r="R2">
+        <v>1000</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3">
+        <v>500</v>
+      </c>
+      <c r="R3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="2"/>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2500</v>
+      </c>
+      <c r="R4">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>900</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>10000</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="1"/>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>2500</v>
+      </c>
+      <c r="R5">
+        <v>2500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/imports/transaction_import_form_excel.xlsx
+++ b/assets/imports/transaction_import_form_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1840" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="280" yWindow="1840" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="purchases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>number</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>reference_no</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>tax</t>
@@ -161,7 +158,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,8 +208,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -299,7 +299,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -338,6 +338,8 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -376,6 +378,8 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,7 +647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -651,214 +655,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="3"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
-        <v>35</v>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>1000</v>
+      </c>
+      <c r="Q2">
+        <v>1000</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3">
+        <v>500</v>
+      </c>
+      <c r="Q3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1000</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4">
+      <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2500</v>
+      </c>
+      <c r="Q4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="L5" t="s">
         <v>30</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M5" t="s">
         <v>30</v>
       </c>
-      <c r="O4">
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="P5">
         <v>2500</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
         <v>2500</v>
       </c>
     </row>
@@ -875,214 +864,199 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="3"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
+    <row r="2" spans="1:18">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="O2">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
+      </c>
+      <c r="P2">
+        <v>1000</v>
       </c>
       <c r="Q2">
         <v>1000</v>
       </c>
-      <c r="R2">
-        <v>1000</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
+      <c r="R2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:18">
+      <c r="L3" t="s">
+        <v>27</v>
       </c>
       <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
+      <c r="P3">
+        <v>500</v>
       </c>
       <c r="Q3">
         <v>500</v>
       </c>
-      <c r="R3">
-        <v>500</v>
-      </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4">
+      <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4">
+        <v>29</v>
+      </c>
+      <c r="N4">
         <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2500</v>
       </c>
       <c r="Q4">
         <v>2500</v>
       </c>
-      <c r="R4">
+    </row>
+    <row r="5" spans="1:18">
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>2500</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
       <c r="Q5">
-        <v>2500</v>
-      </c>
-      <c r="R5">
         <v>2500</v>
       </c>
     </row>

--- a/assets/imports/transaction_import_form_excel.xlsx
+++ b/assets/imports/transaction_import_form_excel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>number</t>
   </si>
@@ -49,9 +49,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Invoice</t>
-  </si>
-  <si>
     <t>2017-12-01</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>account</t>
   </si>
   <si>
-    <t>Accounts Receivable</t>
-  </si>
-  <si>
     <t>bill_to</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>tax</t>
   </si>
   <si>
-    <t>Accounts Payable</t>
-  </si>
-  <si>
     <t>INV001</t>
   </si>
   <si>
@@ -112,25 +103,10 @@
     <t>Times</t>
   </si>
   <si>
-    <t>Khmer Cake A</t>
-  </si>
-  <si>
-    <t>Khmer Cake B</t>
-  </si>
-  <si>
-    <t>INV002</t>
-  </si>
-  <si>
-    <t>Credit_Purchase</t>
-  </si>
-  <si>
     <t>Cash_Purchase</t>
   </si>
   <si>
     <t>BI001</t>
-  </si>
-  <si>
-    <t>BI002</t>
   </si>
   <si>
     <t>Cash and Cash Equivalent</t>
@@ -647,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -687,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -696,10 +672,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -708,63 +684,63 @@
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2">
         <v>1000</v>
@@ -773,82 +749,27 @@
         <v>1000</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="L3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P3">
         <v>500</v>
       </c>
       <c r="Q3">
         <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>2500</v>
-      </c>
-      <c r="Q4">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>2500</v>
-      </c>
-      <c r="Q5">
-        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -864,11 +785,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -896,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -905,10 +826,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -917,63 +838,63 @@
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2">
         <v>1000</v>
@@ -982,82 +903,27 @@
         <v>1000</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="L3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P3">
         <v>500</v>
       </c>
       <c r="Q3">
         <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>2500</v>
-      </c>
-      <c r="Q4">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>2500</v>
-      </c>
-      <c r="Q5">
-        <v>2500</v>
       </c>
     </row>
   </sheetData>

--- a/assets/imports/transaction_import_form_excel.xlsx
+++ b/assets/imports/transaction_import_form_excel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1840" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="1840" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="purchases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>number</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>due_date</t>
-  </si>
-  <si>
-    <t>status</t>
   </si>
   <si>
     <t>name</t>
@@ -623,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -631,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -644,17 +641,17 @@
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="3"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -663,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -672,19 +669,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
@@ -693,88 +690,81 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
+      <c r="O2">
+        <v>1000</v>
       </c>
       <c r="P2">
         <v>1000</v>
       </c>
-      <c r="Q2">
-        <v>1000</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
+      <c r="Q2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:17">
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
       <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
+      <c r="O3">
+        <v>500</v>
       </c>
       <c r="P3">
-        <v>500</v>
-      </c>
-      <c r="Q3">
         <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -785,11 +775,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -798,17 +788,17 @@
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="3"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -817,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -826,19 +816,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
@@ -847,88 +837,81 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
+      <c r="O2">
+        <v>1000</v>
       </c>
       <c r="P2">
         <v>1000</v>
       </c>
-      <c r="Q2">
-        <v>1000</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
+      <c r="Q2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:17">
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
       <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
+      <c r="O3">
+        <v>500</v>
       </c>
       <c r="P3">
-        <v>500</v>
-      </c>
-      <c r="Q3">
         <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
